--- a/classfiers/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
+++ b/classfiers/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9934924078091106</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996962217581167</v>
+        <v>0.9997741389045737</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9703389830508474</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9849462365591398</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9811657490032277</v>
+        <v>0.9977413890457369</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9704641350210971</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9850107066381156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9974669187145557</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9704641350210971</v>
+        <v>0.9867256637168141</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9695652173913043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9850107066381156</v>
+        <v>0.9780701754385964</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9991493383742912</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9739130434782609</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.986784140969163</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.977241083384504</v>
+        <v>0.9814812497908723</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.988695652173913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9884345510523371</v>
+        <v>0.9848880023390846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9961723941522689</v>
+        <v>0.9988263570078315</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
+++ b/classfiers/chatty/MLP/nearmiss/chatty-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997741389045737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9282511210762332</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9767441860465117</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9977413890457369</v>
+        <v>0.99702712746191</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9704641350210971</v>
+        <v>0.9674418604651163</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9850107066381156</v>
+        <v>0.983451536643026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974669187145557</v>
+        <v>0.9999535488665924</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9867256637168141</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9695652173913043</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9780701754385964</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991493383742912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9739130434782609</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.986784140969163</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9814812497908723</v>
+        <v>0.9772247207101838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.988695652173913</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9848880023390846</v>
+        <v>0.9882869084019505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9988263570078315</v>
+        <v>0.9993961352657005</v>
       </c>
     </row>
   </sheetData>
